--- a/DATA TESTING & DATA UJI/datatesting_mona.xlsx
+++ b/DATA TESTING & DATA UJI/datatesting_mona.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kickymaulana\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kickymaulana\Downloads\mona\knn_algorithm\DATA TESTING &amp; DATA UJI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3736DDB2-EB62-4450-B865-9B3479C3F076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1CD9E4-ACBA-4B55-A078-D3A55DC25036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B37114CE-FFD3-4359-84AD-C162DBE58A15}"/>
   </bookViews>
@@ -883,7 +883,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+      <selection activeCell="G2" sqref="G2:G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,7 +983,7 @@
         <v>73</v>
       </c>
       <c r="G4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1466,7 +1466,7 @@
         <v>147</v>
       </c>
       <c r="G25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1558,7 +1558,7 @@
         <v>132</v>
       </c>
       <c r="G29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1673,7 +1673,7 @@
         <v>88</v>
       </c>
       <c r="G34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1742,7 +1742,7 @@
         <v>73</v>
       </c>
       <c r="G37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1972,7 +1972,7 @@
         <v>41</v>
       </c>
       <c r="G47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1995,7 +1995,7 @@
         <v>29</v>
       </c>
       <c r="G48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2018,7 +2018,7 @@
         <v>29</v>
       </c>
       <c r="G49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2041,7 +2041,7 @@
         <v>29</v>
       </c>
       <c r="G50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2064,7 +2064,7 @@
         <v>32</v>
       </c>
       <c r="G51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2087,7 +2087,7 @@
         <v>35</v>
       </c>
       <c r="G52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2110,7 +2110,7 @@
         <v>59</v>
       </c>
       <c r="G53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2156,7 +2156,7 @@
         <v>44</v>
       </c>
       <c r="G55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2179,7 +2179,7 @@
         <v>37</v>
       </c>
       <c r="G56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2202,7 +2202,7 @@
         <v>18</v>
       </c>
       <c r="G57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2225,7 +2225,7 @@
         <v>15</v>
       </c>
       <c r="G58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2248,7 +2248,7 @@
         <v>6</v>
       </c>
       <c r="G59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2271,7 +2271,7 @@
         <v>59</v>
       </c>
       <c r="G60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="G61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2317,7 +2317,7 @@
         <v>15</v>
       </c>
       <c r="G62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2340,7 +2340,7 @@
         <v>44</v>
       </c>
       <c r="G63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2363,7 +2363,7 @@
         <v>15</v>
       </c>
       <c r="G64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2386,7 +2386,7 @@
         <v>15</v>
       </c>
       <c r="G65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2409,7 +2409,7 @@
         <v>15</v>
       </c>
       <c r="G66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -2432,7 +2432,7 @@
         <v>21</v>
       </c>
       <c r="G67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2478,7 +2478,7 @@
         <v>18</v>
       </c>
       <c r="G69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -2501,7 +2501,7 @@
         <v>18</v>
       </c>
       <c r="G70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -2524,7 +2524,7 @@
         <v>35</v>
       </c>
       <c r="G71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -2547,7 +2547,7 @@
         <v>24</v>
       </c>
       <c r="G72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2593,7 +2593,7 @@
         <v>44</v>
       </c>
       <c r="G74" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -2616,7 +2616,7 @@
         <v>66</v>
       </c>
       <c r="G75" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2639,7 +2639,7 @@
         <v>29</v>
       </c>
       <c r="G76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -2662,7 +2662,7 @@
         <v>65</v>
       </c>
       <c r="G77" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -2685,7 +2685,7 @@
         <v>29</v>
       </c>
       <c r="G78" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -2731,7 +2731,7 @@
         <v>29</v>
       </c>
       <c r="G80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -2754,7 +2754,7 @@
         <v>37</v>
       </c>
       <c r="G81" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DATA TESTING & DATA UJI/datatesting_mona.xlsx
+++ b/DATA TESTING & DATA UJI/datatesting_mona.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kickymaulana\Downloads\mona\knn_algorithm\DATA TESTING &amp; DATA UJI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C7DA77-26A6-4AB2-BF9E-105582705FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A61E01-1FFA-46F8-8575-5891948A02A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B37114CE-FFD3-4359-84AD-C162DBE58A15}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
   <si>
     <t>nama</t>
   </si>
@@ -311,9 +311,6 @@
   </si>
   <si>
     <t>1207282004700003</t>
-  </si>
-  <si>
-    <t>label</t>
   </si>
   <si>
     <t>Pitta Pangaribuan</t>
@@ -409,10 +406,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7ACEC02-2CDC-44A7-A640-BFC4F867BD05}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,10 +734,9 @@
     <col min="1" max="1" width="34.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,11 +755,8 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -783,11 +775,8 @@
       <c r="F2" s="1">
         <v>24</v>
       </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -806,11 +795,8 @@
       <c r="F3" s="1">
         <v>29</v>
       </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,11 +815,8 @@
       <c r="F4" s="1">
         <v>73</v>
       </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,11 +835,8 @@
       <c r="F5" s="1">
         <v>59</v>
       </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,11 +855,8 @@
       <c r="F6" s="1">
         <v>18</v>
       </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -898,11 +875,8 @@
       <c r="F7" s="1">
         <v>15</v>
       </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,11 +895,8 @@
       <c r="F8" s="1">
         <v>147</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -944,11 +915,8 @@
       <c r="F9" s="1">
         <v>132</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -967,13 +935,10 @@
       <c r="F10" s="1">
         <v>37</v>
       </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1">
         <v>2.4</v>
@@ -990,13 +955,10 @@
       <c r="F11" s="1">
         <v>144</v>
       </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="1">
         <v>1.08</v>
@@ -1013,13 +975,10 @@
       <c r="F12" s="1">
         <v>64</v>
       </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="1">
         <v>0.96</v>
@@ -1036,13 +995,10 @@
       <c r="F13" s="1">
         <v>57</v>
       </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="1">
         <v>0.48</v>
@@ -1059,13 +1015,10 @@
       <c r="F14" s="1">
         <v>28</v>
       </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="1">
         <v>0.6</v>
@@ -1082,13 +1035,10 @@
       <c r="F15" s="1">
         <v>36</v>
       </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="1">
         <v>1.44</v>
@@ -1105,13 +1055,10 @@
       <c r="F16" s="1">
         <v>86</v>
       </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="1">
         <v>1.2</v>
@@ -1128,13 +1075,10 @@
       <c r="F17" s="1">
         <v>72</v>
       </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -1151,13 +1095,10 @@
       <c r="F18" s="1">
         <v>180</v>
       </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
@@ -1174,13 +1115,10 @@
       <c r="F19" s="1">
         <v>180</v>
       </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1">
         <v>1.44</v>
@@ -1197,13 +1135,10 @@
       <c r="F20" s="1">
         <v>86</v>
       </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="1">
         <v>1.08</v>
@@ -1220,13 +1155,10 @@
       <c r="F21" s="1">
         <v>64</v>
       </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="1">
         <v>1.5</v>
@@ -1243,13 +1175,10 @@
       <c r="F22" s="1">
         <v>90</v>
       </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="1">
         <v>2.1</v>
@@ -1266,13 +1195,10 @@
       <c r="F23" s="1">
         <v>126</v>
       </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" s="1">
         <v>1.8</v>
@@ -1289,13 +1215,10 @@
       <c r="F24" s="1">
         <v>108</v>
       </c>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
@@ -1312,13 +1235,10 @@
       <c r="F25" s="1">
         <v>180</v>
       </c>
-      <c r="G25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" s="1">
         <v>0.6</v>
@@ -1335,13 +1255,10 @@
       <c r="F26" s="1">
         <v>36</v>
       </c>
-      <c r="G26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B27" s="1">
         <v>2.4</v>
@@ -1358,13 +1275,10 @@
       <c r="F27" s="1">
         <v>144</v>
       </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B28" s="1">
         <v>4.5</v>
@@ -1381,13 +1295,10 @@
       <c r="F28" s="1">
         <v>270</v>
       </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B29" s="1">
         <v>3</v>
@@ -1404,13 +1315,10 @@
       <c r="F29" s="1">
         <v>180</v>
       </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B30" s="1">
         <v>3</v>
@@ -1427,27 +1335,22 @@
       <c r="F30" s="1">
         <v>180</v>
       </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
-      <c r="G31"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
-      <c r="G32"/>
     </row>
     <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
